--- a/data transparency/Mortality rate Ratio study  framework.xlsx
+++ b/data transparency/Mortality rate Ratio study  framework.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stk\Documents\GitHub\debate\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stk\Documents\GitHub\covid\data transparency\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{47E19CB4-8CE4-44B3-B99B-6417F576706C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6150A25-8350-4D45-8FF1-D42A58A614F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8080" yWindow="3750" windowWidth="30410" windowHeight="17220" xr2:uid="{453EB5F0-4C18-498B-BFA3-649B6329D45F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{453EB5F0-4C18-498B-BFA3-649B6329D45F}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="MRR analysis example" sheetId="1" r:id="rId1"/>
+    <sheet name="data to be produced" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
   <si>
     <t>Age</t>
   </si>
@@ -69,6 +70,69 @@
   </si>
   <si>
     <t>Crude mortality ratio ratio (CMRR)</t>
+  </si>
+  <si>
+    <t>this page shows the data summary that should be produced by Dept Public Health</t>
+  </si>
+  <si>
+    <t>Vaccine Mfg</t>
+  </si>
+  <si>
+    <t>Vaccine dose #</t>
+  </si>
+  <si>
+    <t>25-29</t>
+  </si>
+  <si>
+    <t>Pfizer</t>
+  </si>
+  <si>
+    <t>Week # dose given</t>
+  </si>
+  <si>
+    <t>Year dose given</t>
+  </si>
+  <si>
+    <t>Age range at time of dose</t>
+  </si>
+  <si>
+    <t># dead in 30 days</t>
+  </si>
+  <si>
+    <t># dead 31-50 days post shot</t>
+  </si>
+  <si>
+    <t>etc</t>
+  </si>
+  <si>
+    <t>Lot #</t>
+  </si>
+  <si>
+    <t>Number got dosed</t>
+  </si>
+  <si>
+    <t>….</t>
+  </si>
+  <si>
+    <t>M/F</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">for every vaccine </t>
+  </si>
+  <si>
+    <t>if a dept of public health isn't producing this data internally, they are risking people's lives</t>
+  </si>
+  <si>
+    <t>there is not reason to keep this data secret.</t>
+  </si>
+  <si>
+    <t>90=94</t>
+  </si>
+  <si>
+    <t>95+</t>
   </si>
 </sst>
 </file>
@@ -452,7 +516,7 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -617,4 +681,122 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6523BD0-4534-4A7E-9E61-EA18D4C94C8D}">
+  <dimension ref="A1:R8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R7" sqref="R7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="21.54296875" customWidth="1"/>
+    <col min="3" max="4" width="11.54296875" customWidth="1"/>
+    <col min="5" max="5" width="12.26953125" customWidth="1"/>
+    <col min="6" max="6" width="15.08984375" customWidth="1"/>
+    <col min="10" max="10" width="23.36328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2">
+        <v>423</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>49</v>
+      </c>
+      <c r="G2">
+        <v>2021</v>
+      </c>
+      <c r="H2">
+        <v>12023</v>
+      </c>
+      <c r="I2">
+        <v>12</v>
+      </c>
+      <c r="J2">
+        <v>13</v>
+      </c>
+      <c r="K2" t="s">
+        <v>24</v>
+      </c>
+      <c r="R2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="R3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="R5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data transparency/Mortality rate Ratio study  framework.xlsx
+++ b/data transparency/Mortality rate Ratio study  framework.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stk\Documents\GitHub\covid\data transparency\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6150A25-8350-4D45-8FF1-D42A58A614F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{462C8600-A4A3-4B3A-9B90-714D0B65B95C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{453EB5F0-4C18-498B-BFA3-649B6329D45F}"/>
+    <workbookView xWindow="5150" yWindow="3560" windowWidth="22140" windowHeight="17220" activeTab="1" xr2:uid="{453EB5F0-4C18-498B-BFA3-649B6329D45F}"/>
   </bookViews>
   <sheets>
     <sheet name="MRR analysis example" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
   <si>
     <t>Age</t>
   </si>
@@ -87,9 +87,6 @@
     <t>Pfizer</t>
   </si>
   <si>
-    <t>Week # dose given</t>
-  </si>
-  <si>
     <t>Year dose given</t>
   </si>
   <si>
@@ -108,9 +105,6 @@
     <t>Lot #</t>
   </si>
   <si>
-    <t>Number got dosed</t>
-  </si>
-  <si>
     <t>….</t>
   </si>
   <si>
@@ -133,6 +127,15 @@
   </si>
   <si>
     <t>95+</t>
+  </si>
+  <si>
+    <t>this is the summary data file with the raw data that should be produced. Lot# is optional.</t>
+  </si>
+  <si>
+    <t>Week # dose given (0-52)</t>
+  </si>
+  <si>
+    <t>Number who got dosed</t>
   </si>
 </sst>
 </file>
@@ -515,7 +518,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{640E1331-BA4B-428C-A193-490B0D97C8F3}">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
@@ -685,10 +688,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6523BD0-4534-4A7E-9E61-EA18D4C94C8D}">
-  <dimension ref="A1:R8"/>
+  <dimension ref="A1:R13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R7" sqref="R7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -702,42 +705,42 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C1" t="s">
         <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E1" t="s">
         <v>13</v>
       </c>
       <c r="F1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" t="s">
         <v>16</v>
       </c>
-      <c r="G1" t="s">
-        <v>17</v>
-      </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="I1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" t="s">
         <v>19</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>20</v>
-      </c>
-      <c r="K1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
@@ -767,7 +770,7 @@
         <v>13</v>
       </c>
       <c r="K2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="R2" t="s">
         <v>11</v>
@@ -775,25 +778,35 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="R3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="R5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
-        <v>31</v>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
